--- a/data/trans_camb/P5_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-2,07</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 18,17</t>
+          <t>-20,55; 19,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 17,04</t>
+          <t>-23,31; 16,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 12,73</t>
+          <t>-16,43; 13,48</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-5,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-2,75%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 34,55</t>
+          <t>-23,84; 28,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 33,99</t>
+          <t>-30,2; 26,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 23,27</t>
+          <t>-20,63; 20,5</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 24,04</t>
+          <t>-23,43; 27,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 16,51</t>
+          <t>-16,56; 18,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 15,28</t>
+          <t>-13,99; 18,14</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 89,48</t>
+          <t>-53,52; 140,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 52,07</t>
+          <t>-33,12; 53,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 45,47</t>
+          <t>-30,92; 63,63</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 22,37</t>
+          <t>-13,28; 22,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 13,05</t>
+          <t>-13,41; 14,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 13,72</t>
+          <t>-11,39; 11,62</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 60,0</t>
+          <t>-20,59; 54,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 38,1</t>
+          <t>-28,82; 41,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 36,29</t>
+          <t>-22,09; 28,9</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 13,25</t>
+          <t>-16,25; 14,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 11,29</t>
+          <t>-11,72; 14,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 8,14</t>
+          <t>-11,03; 10,06</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 29,1</t>
+          <t>-29,23; 34,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 28,66</t>
+          <t>-24,7; 41,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 18,87</t>
+          <t>-20,97; 24,91</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 14,51</t>
+          <t>-17,48; 17,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 13,92</t>
+          <t>-17,81; 18,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 11,39</t>
+          <t>-12,05; 14,43</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 35,1</t>
+          <t>-31,72; 48,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 41,64</t>
+          <t>-35,78; 63,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 28,47</t>
+          <t>-24,12; 39,87</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-1,38</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 16,16</t>
+          <t>-24,45; 18,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 16,53</t>
+          <t>-22,39; 19,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 11,54</t>
+          <t>-17,63; 15,32</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>-2,83%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 43,93</t>
+          <t>-36,09; 41,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 49,93</t>
+          <t>-41,36; 64,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 31,05</t>
+          <t>-31,53; 37,96</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 10,01</t>
+          <t>-7,23; 11,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,49</t>
+          <t>-7,87; 6,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,45</t>
+          <t>-5,55; 5,88</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 21,88</t>
+          <t>-13,64; 23,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 13,15</t>
+          <t>-16,04; 14,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 12,43</t>
+          <t>-11,11; 12,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.267682540266212</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.002429177571633</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.558727082000035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,55; 19,74</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-23,31; 16,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,43; 13,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.27223662455874</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-27.13032735603243</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-18.59099478242978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,64%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.62382455566913</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.9912612518692</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.84156932753292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,84; 28,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-30,2; 26,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,63; 20,5</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.003324486521699596</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.08399355908033811</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.04726595365366357</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2433195017075701</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3438544886436008</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.226387968771294</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-23,43; 27,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,56; 18,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,99; 18,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2826647161060138</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.248555041104274</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1850056612624945</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.406903783227742</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6374639634961821</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.782836430582895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-53,52; 140,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-33,12; 53,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-30,92; 63,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-22.09343868358236</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.44546432288245</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.38348932701546</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.91058452090417</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.61127640642707</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.02369617810065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 22,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; 14,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,39; 11,62</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.04642674503509718</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0150003302985976</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.02155344148394222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.5275191806757142</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3647603372137726</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3218900569694517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 54,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-28,82; 41,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,09; 28,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.41559681803987</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.5131198219544559</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.6188747740470316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.11765255076342</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.451520032527537</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.58919718384425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 14,32</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,72; 14,03</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; 10,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.24177521348065</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.91147021759895</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.79519065873531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>26.0843651268828</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.47691749645981</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>14.57747858961219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-29,23; 34,59</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-24,7; 41,66</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-20,97; 24,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.1333568063800761</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.03581324950204981</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.0787392981668078</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1654318750525827</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2571421908911333</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1783949643825363</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-17,48; 17,84</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-17,81; 18,65</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 14,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.5880307927500978</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.459006913492818</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.3598728779256821</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.3548969166127125</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4396186039763661</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3713551207009114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-31,72; 48,01</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-35,78; 63,86</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-24,12; 39,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-16.60991052812262</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.39788845819988</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.34533796934432</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>15.2869154491081</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.66399554820127</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.22355149541063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-24,45; 18,93</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-22,39; 19,45</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-17,63; 15,32</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.007252055383973839</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.01044130813898863</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.008206227823142146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-3,61%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-2,83%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.293150415013869</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.254399088494601</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2062335970643785</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-36,09; 41,23</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-41,36; 64,22</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-31,53; 37,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.3585472899633504</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.4132755770977146</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2499241833782779</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>1.33800378490388</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>1.515717923568288</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1.429621192317471</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 11,18</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-7,87; 6,29</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 5,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-16.08986854197836</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-17.16973724237504</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-11.85904260309304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>19.20999604008552</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>19.37949476364578</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>14.42534817989725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 23,8</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; 14,92</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 12,88</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.0292488451150467</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.03767097492933567</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.03294581657169769</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.306278119259037</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.3496300248701789</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.2355887339193589</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.5251373535181402</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.6737602883097202</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.4067301586643381</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-2.930666707602381</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-0.5819438523841924</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-1.513184195547901</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-27.02213433917204</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-22.4997429884296</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-17.47117459353958</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>18.99152329172233</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>18.9725242898985</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>15.98737236887161</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.05071032195152723</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.0140459981879425</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.03093450948631922</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.4143808987411556</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4173038566639857</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.3062118127696754</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.3913947044676028</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.6405195009766026</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.402531713885229</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.266399887048109</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.1345041007722092</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.5316884626048957</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-7.047397813266447</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-7.591314518007727</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.46534765081468</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>11.05694042034893</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>6.528475703465246</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.956659928721832</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.02510010706466037</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.002959756594705435</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.01112898250062574</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1306781907164749</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1551775435234519</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.109118422785282</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.2529143239056895</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.1509087285859446</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.1326729816100692</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
